--- a/data/output/Pedido_Semana_06_13022026_semillas.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_semillas.xlsx
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>5307010001</t>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>16.95</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>10.17</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>5401010005</t>
@@ -889,13 +889,13 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="inlineStr">
         <is>
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="P5" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" hidden="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>5401010009</t>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
@@ -984,25 +984,25 @@
         </is>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" hidden="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>5401010010</t>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" hidden="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>5401010013</t>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>5401010022</t>
@@ -1216,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="inlineStr">
         <is>
@@ -1227,25 +1227,25 @@
         </is>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" hidden="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>5401010023</t>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1488,7 +1488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>5401010028</t>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="inlineStr">
         <is>
@@ -1551,22 +1551,22 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1650,7 +1650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>5402020001</t>
@@ -1702,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="P15" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="U15" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" hidden="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>5402020006</t>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>5402020009</t>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>5402020010</t>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="inlineStr">
         <is>
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" hidden="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>5402020013</t>
@@ -2026,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>5402020016</t>
@@ -2107,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2118,25 +2118,25 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" hidden="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>5402050001</t>
@@ -2188,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="inlineStr">
         <is>
@@ -2199,22 +2199,22 @@
         </is>
       </c>
       <c r="P21" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2266,13 +2266,13 @@
         <v>2</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>11.85</v>
+        <v>5.93</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>7.11</v>
+        <v>3.56</v>
       </c>
       <c r="O22" s="7" t="inlineStr">
         <is>
@@ -2280,10 +2280,10 @@
         </is>
       </c>
       <c r="P22" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" hidden="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>5402050008</t>
@@ -2350,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="inlineStr">
         <is>
@@ -2361,22 +2361,22 @@
         </is>
       </c>
       <c r="P23" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -2619,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>5402050015</t>
@@ -2674,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2685,25 +2685,25 @@
         </is>
       </c>
       <c r="P27" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" hidden="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>5402050017</t>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="inlineStr">
         <is>
@@ -2766,25 +2766,25 @@
         </is>
       </c>
       <c r="P28" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>5402090013</t>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="inlineStr">
         <is>
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>5402090020</t>
@@ -2917,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="inlineStr">
         <is>
@@ -2928,22 +2928,22 @@
         </is>
       </c>
       <c r="P30" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" hidden="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>5404010011</t>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="inlineStr">
         <is>
@@ -3090,10 +3090,10 @@
         </is>
       </c>
       <c r="P32" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>5404010013</t>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="inlineStr">
         <is>
@@ -3252,25 +3252,25 @@
         </is>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>5404010016</t>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="inlineStr">
         <is>
@@ -3333,25 +3333,25 @@
         </is>
       </c>
       <c r="P35" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" hidden="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>5404010017</t>
@@ -3403,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="inlineStr">
         <is>
@@ -3414,22 +3414,22 @@
         </is>
       </c>
       <c r="P36" s="3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3481,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>16</v>
@@ -3495,25 +3495,25 @@
         </is>
       </c>
       <c r="P37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>5404010020</t>
@@ -3562,24 +3562,24 @@
         <v>2</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
+        </is>
+      </c>
+      <c r="P38" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="N38" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O38" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FITO SAU                                                                                                       </t>
-        </is>
-      </c>
-      <c r="P38" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3646,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>3.95</v>
+        <v>1.98</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>2.37</v>
+        <v>1.19</v>
       </c>
       <c r="O39" s="7" t="inlineStr">
         <is>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="P39" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40"/>
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>123</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C44" s="5" t="inlineStr">
         <is>
-          <t>255.50€</t>
+          <t>87.71€</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_06_13022026_semillas.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_semillas.xlsx
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>2</v>
@@ -3459,7 +3459,7 @@
         </is>
       </c>
       <c r="F37" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>2</v>
@@ -3478,16 +3478,16 @@
         </is>
       </c>
       <c r="K37" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="O37" s="7" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="U37" s="8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" hidden="1">
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C44" s="5" t="inlineStr">
         <is>
-          <t>87.71€</t>
+          <t>91.71€</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
